--- a/data/2024Q3_03022025.xlsx
+++ b/data/2024Q3_03022025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nina/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26235CE9-0936-EE44-9B09-F6859002DAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{338EA7C0-AF23-B245-821D-C2C65741447B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="criteria for qualitative assess" sheetId="1" r:id="rId1"/>
@@ -1055,8 +1055,8 @@
         <v>25</v>
       </c>
       <c r="P2" s="7">
-        <f>K4*0.2 + L4*0.4 + M4*0.1 + N4*0.1 + 1*0.2</f>
-        <v>1.2000000000000002</v>
+        <f>K2*0.2 + L2*0.4 + M2*0.1 + N2*0.1 + 1*0.2</f>
+        <v>1</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>26</v>
@@ -1119,8 +1119,8 @@
         <v>38</v>
       </c>
       <c r="P3" s="7">
-        <f>K5*0.2 + L5*0.4 + M5*0.1 + N5*0.1 + 2*0.2</f>
-        <v>1.4000000000000004</v>
+        <f>K3*0.2 + L3*0.4 + M3*0.1 + N3*0.1 + 2*0.2</f>
+        <v>1.7000000000000002</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>26</v>
@@ -1183,8 +1183,8 @@
         <v>0</v>
       </c>
       <c r="P4" s="7">
-        <f>K6*0.2 + L6*0.4 + M6*0.1 + N6*0.1</f>
-        <v>1.2000000000000002</v>
+        <f>K4*0.2 + L4*0.4 + M4*0.1 + N4*0.1</f>
+        <v>1.0000000000000002</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>26</v>
@@ -1247,8 +1247,8 @@
         <v>0</v>
       </c>
       <c r="P5" s="7">
-        <f>K7*0.2 + L7*0.4 + M7*0.1 + N7*0.1</f>
-        <v>0.8</v>
+        <f>K5*0.2 + L5*0.4 + M5*0.1 + N5*0.1</f>
+        <v>1.0000000000000002</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>26</v>
@@ -1311,8 +1311,8 @@
         <v>0</v>
       </c>
       <c r="P6" s="7">
-        <f>K8*0.2 + L8*0.4 + M8*0.1 + N8*0.1</f>
-        <v>1.6000000000000003</v>
+        <f>K6*0.2 + L6*0.4 + M6*0.1 + N6*0.1</f>
+        <v>1.2000000000000002</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>26</v>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="7">
-        <f>K9*0.2 + L9*0.4 + M9*0.1 + N9*0.1</f>
+        <f>K7*0.2 + L7*0.4 + M7*0.1 + N7*0.1</f>
         <v>0.8</v>
       </c>
       <c r="Q7" s="3" t="s">
@@ -1434,9 +1434,9 @@
       <c r="O8" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="P8" s="7" t="e">
-        <f>K10*0.2 + L10*0.4 + M10*0.1 + N10*0.1 + 3*0.2</f>
-        <v>#VALUE!</v>
+      <c r="P8" s="7">
+        <f>K8*0.2 + L8*0.4 + M8*0.1 + N8*0.1 + 3*0.2</f>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>26</v>
@@ -1495,8 +1495,8 @@
         <v>0</v>
       </c>
       <c r="P9" s="7">
-        <f>K11*0.2 + L11*0.4 + M11*0.1 + N11*0.1</f>
-        <v>0.4</v>
+        <f>K9*0.2 + L9*0.4 + M9*0.1 + N9*0.1</f>
+        <v>0.8</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>26</v>
@@ -1551,8 +1551,8 @@
         <v>0</v>
       </c>
       <c r="P10" s="7">
-        <f>K12*0.2 + L12*0.4 + M12*0.1 + N12*0.1</f>
-        <v>0.60000000000000009</v>
+        <f xml:space="preserve"> L10*0.4 + M10*0.1 + N10*0.1</f>
+        <v>0</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>26</v>
@@ -1607,8 +1607,8 @@
         <v>0</v>
       </c>
       <c r="P11" s="7">
-        <f>K13*0.2 + L13*0.4 + M13*0.1 + N13*0.1</f>
-        <v>0</v>
+        <f>K11*0.2 + L11*0.4 + M11*0.1 + N11*0.1</f>
+        <v>0.4</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>26</v>
@@ -1661,8 +1661,8 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="7">
-        <f>K14*0.2 + L14*0.4 + M14*0.1 + N14*0.1</f>
-        <v>0</v>
+        <f>K12*0.2 + L12*0.4 + M12*0.1 + N12*0.1</f>
+        <v>0.60000000000000009</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>26</v>
